--- a/img_user/aumza/biomAdvancePhylotype/excel_table_summary.xlsx
+++ b/img_user/aumza/biomAdvancePhylotype/excel_table_summary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>comparison</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>braycurtis</t>
-  </si>
-  <si>
-    <t>S1_1_16s_S1</t>
-  </si>
-  <si>
-    <t>S2_1_16s_S3</t>
-  </si>
-  <si>
-    <t>S3_1_16s_S5</t>
-  </si>
-  <si>
-    <t>S4_1_16s_S7</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,216 +442,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0.283333</v>
-      </c>
-      <c r="D2">
-        <v>0.457658</v>
-      </c>
-      <c r="E2">
-        <v>0.05942</v>
-      </c>
-      <c r="F2">
-        <v>0.016894</v>
-      </c>
-      <c r="G2">
-        <v>0.048151</v>
-      </c>
-      <c r="H2">
-        <v>0.112175</v>
-      </c>
-      <c r="I2">
-        <v>0.09699199999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.127358</v>
-      </c>
-      <c r="K2">
-        <v>0.220497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0.511041</v>
-      </c>
-      <c r="D3">
-        <v>0.740803</v>
-      </c>
-      <c r="E3">
-        <v>0.927497</v>
-      </c>
-      <c r="F3">
-        <v>0.162476</v>
-      </c>
-      <c r="G3">
-        <v>0.430381</v>
-      </c>
-      <c r="H3">
-        <v>0.962385</v>
-      </c>
-      <c r="I3">
-        <v>0.95833</v>
-      </c>
-      <c r="J3">
-        <v>0.96644</v>
-      </c>
-      <c r="K3">
-        <v>0.8935650000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.5488960000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.759259</v>
-      </c>
-      <c r="E4">
-        <v>0.951134</v>
-      </c>
-      <c r="F4">
-        <v>0.132085</v>
-      </c>
-      <c r="G4">
-        <v>0.43135</v>
-      </c>
-      <c r="H4">
-        <v>0.974955</v>
-      </c>
-      <c r="I4">
-        <v>0.972235</v>
-      </c>
-      <c r="J4">
-        <v>0.977675</v>
-      </c>
-      <c r="K4">
-        <v>0.904043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.288991</v>
-      </c>
-      <c r="D5">
-        <v>0.512579</v>
-      </c>
-      <c r="E5">
-        <v>0.309183</v>
-      </c>
-      <c r="F5">
-        <v>0.029989</v>
-      </c>
-      <c r="G5">
-        <v>0.10316</v>
-      </c>
-      <c r="H5">
-        <v>0.472329</v>
-      </c>
-      <c r="I5">
-        <v>0.450287</v>
-      </c>
-      <c r="J5">
-        <v>0.494372</v>
-      </c>
-      <c r="K5">
-        <v>0.432566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0.240476</v>
-      </c>
-      <c r="D6">
-        <v>0.477905</v>
-      </c>
-      <c r="E6">
-        <v>0.278543</v>
-      </c>
-      <c r="F6">
-        <v>0.019187</v>
-      </c>
-      <c r="G6">
-        <v>0.077956</v>
-      </c>
-      <c r="H6">
-        <v>0.435719</v>
-      </c>
-      <c r="I6">
-        <v>0.41189</v>
-      </c>
-      <c r="J6">
-        <v>0.459548</v>
-      </c>
-      <c r="K6">
-        <v>0.406882</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0.416404</v>
-      </c>
-      <c r="D7">
-        <v>0.711838</v>
-      </c>
-      <c r="E7">
-        <v>0.907636</v>
-      </c>
-      <c r="F7">
-        <v>0.19855</v>
-      </c>
-      <c r="G7">
-        <v>0.475122</v>
-      </c>
-      <c r="H7">
-        <v>0.951582</v>
-      </c>
-      <c r="I7">
-        <v>0.947368</v>
-      </c>
-      <c r="J7">
-        <v>0.955796</v>
-      </c>
-      <c r="K7">
-        <v>0.843426</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
